--- a/machine_learning/données.xlsx
+++ b/machine_learning/données.xlsx
@@ -256,7 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -320,19 +320,19 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -697,7 +697,7 @@
     <col min="43" max="43" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0.8355886904891203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0.684423382004901</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>0.8072356692661349</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0.7109612586445162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0.7498272545217946</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0.9401916069692146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>0.4633155920328848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>0.5574018508665284</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0.9486811615761119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>0.7993205968713839</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>0.9301190801726968</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>0.8900995185391424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>0.4722910868456565</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>0.8159378969700728</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0.8422166377992671</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0.594288912460719</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>0.9463899239927138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0.8006181731041928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4">
         <v>19</v>
       </c>
